--- a/PracticeProj/Document/設計書.xlsx
+++ b/PracticeProj/Document/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Create\VCsProjects\PracticeProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Create\VCsProjects\PracticeProj\PracticeProj\PracticeProj\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CFB3F-8634-49F4-A7DA-EEF67F10A99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1DB717-A35E-4539-B5A0-0B3238D4EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38550" yWindow="4305" windowWidth="27960" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_全体" sheetId="1" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -199,13 +199,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -283,13 +283,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -367,13 +367,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -431,13 +431,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -495,13 +495,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -559,13 +559,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -623,13 +623,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -687,13 +687,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -751,13 +751,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -815,13 +815,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -879,13 +879,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -943,13 +943,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1027,13 +1027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1091,13 +1091,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1155,13 +1155,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1211,13 +1211,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1267,13 +1267,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1331,13 +1331,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1387,13 +1387,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1443,13 +1443,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1499,13 +1499,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1555,13 +1555,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1611,13 +1611,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1666,15 +1666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1689,8 +1689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495299" y="800100"/>
-          <a:ext cx="15859125" cy="10096500"/>
+          <a:off x="428625" y="762000"/>
+          <a:ext cx="17573625" cy="10096500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1751,13 +1751,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1815,13 +1815,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1879,13 +1879,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1943,13 +1943,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2007,13 +2007,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2063,13 +2063,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2119,13 +2119,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2175,13 +2175,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2259,13 +2259,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2323,13 +2323,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2387,13 +2387,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2451,13 +2451,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2507,13 +2507,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2571,13 +2571,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2635,13 +2635,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2699,13 +2699,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2755,13 +2755,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2811,13 +2811,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2875,13 +2875,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2936,13 +2936,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2958,8 +2958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7254240" y="9875520"/>
-          <a:ext cx="2133600" cy="1463040"/>
+          <a:off x="7286625" y="8382000"/>
+          <a:ext cx="2143125" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3021,7 +3021,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3176,13 +3176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -3316,7 +3316,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Aaa.html</a:t>
+            <a:t>Ccc.html</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3330,13 +3330,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3393,7 +3393,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Aaa.js</a:t>
+            <a:t>Ccc.js</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3413,9 +3413,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3499,7 +3499,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3576,7 +3576,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3647,13 +3647,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3821,7 +3821,7 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3878,7 +3878,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3934,9 +3934,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4014,13 +4014,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4089,15 +4089,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4166,15 +4166,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4245,13 +4245,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4268,7 +4268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3429000" y="8382000"/>
-          <a:ext cx="3000375" cy="2095500"/>
+          <a:ext cx="3000375" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,13 +4322,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4376,15 +4376,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4460,15 +4460,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4484,8 +4484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144250" y="12954000"/>
-          <a:ext cx="2571750" cy="3429000"/>
+          <a:off x="10287000" y="8382000"/>
+          <a:ext cx="2143125" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4537,15 +4537,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4561,8 +4561,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14573250" y="12954000"/>
-          <a:ext cx="2571750" cy="3429000"/>
+          <a:off x="12858750" y="8382000"/>
+          <a:ext cx="2143125" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,7 +4600,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>AaaDmng.cs</a:t>
+            <a:t>CccDmng.cs</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -4614,15 +4614,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4677,7 +4677,7 @@
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>AaaMdl.cs</a:t>
+            <a:t>CccMdl.cs</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -4691,15 +4691,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4718,7 +4718,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10925175" y="10477500"/>
+          <a:off x="13925550" y="11430000"/>
           <a:ext cx="4763" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4747,16 +4747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4775,7 +4775,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9429750" y="9429750"/>
+          <a:off x="12430125" y="9906000"/>
           <a:ext cx="428625" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4809,15 +4809,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4836,7 +4836,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13501688" y="6858000"/>
+          <a:off x="13930313" y="7620000"/>
           <a:ext cx="0" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5068,13 +5068,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5139,13 +5139,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5210,15 +5210,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5347,13 +5347,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5418,13 +5418,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5489,13 +5489,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5560,13 +5560,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5621,13 +5621,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5685,13 +5685,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5749,13 +5749,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5810,13 +5810,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5881,13 +5881,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5945,13 +5945,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6016,13 +6016,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6087,13 +6087,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6158,13 +6158,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6229,13 +6229,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6290,13 +6290,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6361,13 +6361,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6422,13 +6422,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6493,13 +6493,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6564,13 +6564,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6635,13 +6635,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6696,13 +6696,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6755,15 +6755,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6826,15 +6826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6897,15 +6897,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6968,15 +6968,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7039,15 +7039,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7112,13 +7112,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7173,13 +7173,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7232,16 +7232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7256,7 +7256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="13154025"/>
+          <a:off x="11144250" y="9144000"/>
           <a:ext cx="1285875" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7303,15 +7303,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7374,15 +7374,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7450,15 +7450,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7526,15 +7526,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7602,16 +7602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7629,8 +7629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7715250" y="5048250"/>
-          <a:ext cx="3857625" cy="3629025"/>
+          <a:off x="11144250" y="5429250"/>
+          <a:ext cx="3857625" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7663,15 +7663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7725,14 +7725,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7748,8 +7748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429001" y="7620000"/>
-          <a:ext cx="1714500" cy="190500"/>
+          <a:off x="3429000" y="8572500"/>
+          <a:ext cx="2571749" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7795,15 +7795,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7819,8 +7819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="8001000"/>
-          <a:ext cx="1285875" cy="190500"/>
+          <a:off x="3857624" y="8953500"/>
+          <a:ext cx="2143125" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7866,15 +7866,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7890,8 +7890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="8382000"/>
-          <a:ext cx="1285875" cy="190500"/>
+          <a:off x="3857624" y="9334500"/>
+          <a:ext cx="2143125" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7927,7 +7927,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ClearMapBox</a:t>
+            <a:t>InitializeMap</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -7943,7 +7943,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
@@ -8004,7 +8004,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
@@ -8065,9 +8065,9 @@
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8120,15 +8120,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8191,15 +8191,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8262,15 +8262,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8333,15 +8333,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8395,15 +8395,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8457,15 +8457,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8519,15 +8519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8580,15 +8580,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8643,13 +8643,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8704,13 +8704,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8763,13 +8763,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8850,13 +8850,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8937,13 +8937,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9024,13 +9024,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -9085,13 +9085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9149,13 +9149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -9210,15 +9210,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9271,15 +9271,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9332,15 +9332,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9393,15 +9393,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9460,7 +9460,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>220663</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -9518,7 +9518,7 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>220663</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -9570,15 +9570,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9591,19 +9591,3168 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8321040" y="7315200"/>
-          <a:ext cx="5547360" cy="2560320"/>
+          <a:off x="8358188" y="7620000"/>
+          <a:ext cx="5572125" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD2D4FF-1D97-4703-B957-4486A14C9A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="8763000"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SetUctrlMap</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957286D8-67DC-4170-9AD8-2F8CA84F3CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="5048250"/>
+          <a:ext cx="6858000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB88A38-E617-41F3-927B-AE1B91EA50AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="9715500"/>
+          <a:ext cx="1714500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitWake</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCCDE9D-B8F6-4E20-83F9-70D85DFFCDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13287375" y="10477500"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SetWakeMng</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF4044A-CF39-481B-A81F-C937EB17FB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13287375" y="5048250"/>
+          <a:ext cx="1285875" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14663352-5839-4D2A-951A-8AF607E0A375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13287375" y="10858500"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitMap</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB2B2B1-FD9A-4E07-A92F-9DEF5ED9BAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13287375" y="6477000"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReqInitMap</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B3BD68-99F2-42C4-B86F-CDEA4337FB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13287375" y="6572250"/>
+          <a:ext cx="1285875" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4368086-36C9-4613-AFD5-5ADE9A5D6AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7705725" y="9810750"/>
+          <a:ext cx="7296150" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4A96C1-CBA5-F092-C039-B940DA228250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="9525000"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitWakeConfig</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC54BA62-D3DD-48F5-B888-55949E94ED38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="9810750"/>
+          <a:ext cx="1704975" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B66B643-F561-42E8-A96F-3F043BA9BE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="9934575"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenerateWakeLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC58AD9-8476-397E-50F2-2C7E81CA992E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="10287000"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SetStyleToLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30C0871-E018-6FDC-7095-6B44D12EA7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="11811000"/>
+          <a:ext cx="1714500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddPointObject</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F50B6C-2013-A01E-2EE3-EE291C3D7189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="12192000"/>
+          <a:ext cx="1714500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddLineObject</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7914814B-3F88-4409-7321-5947048D5E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="11430000"/>
+          <a:ext cx="1714500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenerateLabelLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B902FCE3-674C-4B78-70A7-5F0A0DEF7116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="9715500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitializeBaseLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6FBFA8-F6B8-07E7-5A0F-7A4B4660E7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="10096500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MapBoxRefresh</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E11707E-56FE-CA60-9690-08292857875A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="10477500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitLayerOtherThanBase</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE2AB67-B81F-62D6-708B-A9A488C3D0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="10096500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClearMapBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4CE3A0-A657-6B3C-8425-79997040A488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="11239500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenerateLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC775BF5-766F-1435-17AA-02F337D7F273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857624" y="11620500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GetVectorLayerByName</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1613663-B1BC-BD3A-38BE-D7B3698F4100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="14287500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddLineToLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA85E614-8C45-F856-98B2-C4B7B0D22836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="13144500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GetIGeometriesAllByVectorLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EEEA00E-8BDA-C6AB-BBA6-D1C6015FC584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="12763500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AddPointToLayer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24A96E2-741A-D2D7-B3A7-6A112A30A878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="4191000"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitializeComponent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C5D4EA-CDA7-4539-B6A9-474C81EDBD7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="98" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3829050" y="3910013"/>
+          <a:ext cx="2171701" cy="376237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BEFAF5-91A3-4428-8CB7-389F8338EDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="3"/>
+          <a:endCxn id="239" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3429000" y="4286250"/>
+          <a:ext cx="2543175" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2730BB0-05E7-4CB0-8B1B-C502B8D6B4B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="9334500"/>
+          <a:ext cx="2143125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InitializeComponent</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1DE218-2055-4EDC-8313-F8723207B724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="239" idx="3"/>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857625" y="9048750"/>
+          <a:ext cx="2143124" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41892AB3-AEA9-4CC0-A22E-8C470E510348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="239" idx="3"/>
+          <a:endCxn id="241" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="9048750"/>
+          <a:ext cx="2143125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24A2765-FD09-455F-907C-1C5C89F17DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="10191750"/>
+          <a:ext cx="2143125" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D55570-43D7-4CDB-9E30-F51C683E31EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="9810750"/>
+          <a:ext cx="5562601" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8440EACD-CEA3-0CC5-D4AE-36C6A3E5A826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="9810750"/>
+          <a:ext cx="5562601" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F5B5CD-CA54-4382-8C2D-07A84B525B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="3"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="6572250"/>
+          <a:ext cx="2143126" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF758E6B-489F-404C-DD18-9849B0EF028A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="11172825"/>
+          <a:ext cx="5572126" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線矢印コネクタ 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30136FD-B85C-F80D-FB44-431B93EFB61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="9810750"/>
+          <a:ext cx="1704975" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782C8B95-F438-96D1-9445-9F375E8CDB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3857624" y="12858750"/>
+          <a:ext cx="2143126" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直線矢印コネクタ 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AC9E84-8C41-0B07-6C8A-15D9851F707B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3857624" y="12858750"/>
+          <a:ext cx="2143126" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直線矢印コネクタ 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E777CAE6-7AAE-4446-BEF2-B3FF07DCE021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857624" y="11525250"/>
+          <a:ext cx="5572126" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直線矢印コネクタ 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE353FC-5CD7-E3EA-FA9A-499A74B46AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="11172825"/>
+          <a:ext cx="1714500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直線矢印コネクタ 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A0C0E7-20AE-34D0-4FEE-86104CC02448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857625" y="12287250"/>
+          <a:ext cx="5572125" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直線矢印コネクタ 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE38EC6-0878-7B0F-4CCE-0D1C22519931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="3"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3857625" y="13239750"/>
+          <a:ext cx="2143125" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="直線矢印コネクタ 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92754055-7D0C-373F-1227-887740BEF458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3857625" y="13239750"/>
+          <a:ext cx="2143125" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2177E0CF-31B9-2DB9-1AF1-4E0A81026642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3857625" y="11906250"/>
+          <a:ext cx="5572125" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="直線矢印コネクタ 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5685C547-CFD5-062E-2C34-4B23A4881A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="11172825"/>
+          <a:ext cx="1714500" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF8B35A-0555-12FC-AF9F-29FA14763C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="11172825"/>
+          <a:ext cx="1714500" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98FB8A7-CA93-818A-D81F-FF2E94FBC469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="11172825"/>
+          <a:ext cx="1714500" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -9892,13 +13041,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="5.59765625" style="1"/>
+    <col min="1" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
@@ -9911,13 +13058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFCE58-5C7A-4AE0-A335-D7C158FCE444}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="5.59765625" style="1"/>
+    <col min="1" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2"/>
